--- a/rpa/range_move.xlsx
+++ b/rpa/range_move.xlsx
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -492,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -503,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -514,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -525,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -536,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -547,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/rpa/range_move.xlsx
+++ b/rpa/range_move.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -492,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -503,10 +503,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -514,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -525,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -536,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -547,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
